--- a/Academic_data.xlsx
+++ b/Academic_data.xlsx
@@ -1,156 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5BA4B5-6923-44DA-957C-B673798A3F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2520" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{05A617E6-B0A1-4FA5-BC58-76B18B099D4B}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="6">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -323,21 +319,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -397,39 +393,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5C5268-2358-4B72-B73D-098D22053AF1}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:C2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B2">
+        <x:v>123456789</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+</x:worksheet>
 </file>
--- a/Academic_data.xlsx
+++ b/Academic_data.xlsx
@@ -19,21 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
+    <x:t>최소언</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직원번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주민등록번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thdjs07</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
   <x:fonts count="6">
     <x:font>
       <x:name val="맑은 고딕"/>
@@ -399,35 +415,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:D2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+      <x:selection activeCell="B3" activeCellId="0" sqref="B3:B3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" t="s">
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" t="s" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" t="s" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
+      <x:c r="C1" t="s" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D1" t="s" s="0">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B2" t="s" s="0">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="B2">
+      <x:c r="C2" s="0">
         <x:v>123456789</x:v>
+      </x:c>
+      <x:c r="D2" t="s" s="0">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/Academic_data.xlsx
+++ b/Academic_data.xlsx
@@ -19,15 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
+    <x:t>주민증록번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직원 번호</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -399,23 +402,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:D2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+      <x:selection activeCell="D2" activeCellId="0" sqref="D2:D2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" t="s">
+      <x:c r="D1" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -427,7 +433,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/Academic_data.xlsx
+++ b/Academic_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
     <x:t>이름</x:t>
   </x:si>
@@ -31,12 +31,19 @@
   </x:si>
   <x:si>
     <x:t>직원 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
   <x:fonts count="6">
     <x:font>
       <x:name val="맑은 고딕"/>
@@ -411,25 +418,28 @@
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" t="s">
+      <x:c r="A1" t="s" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B1" t="s">
+      <x:c r="B1" t="s" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" t="s">
+      <x:c r="C1" t="s" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D1" t="s">
+      <x:c r="D1" t="s" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2">
+      <x:c r="A2" s="0">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B2">
+      <x:c r="B2" s="0">
         <x:v>123456789</x:v>
+      </x:c>
+      <x:c r="D2" t="s" s="0">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
